--- a/experiment_data.xlsx
+++ b/experiment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Git/experiment_attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\experiment_attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46E88BF-2138-D540-8732-34F82CD5AA4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D897C7D-AF4E-42F7-B7E8-9CBA22975402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="23680" windowHeight="15380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1605" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_installation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Raw time data in experiment</t>
   </si>
@@ -83,14 +83,329 @@
     <t>unit(ms)</t>
   </si>
   <si>
-    <t>clang default-jre</t>
+    <t>common packages</t>
+  </si>
+  <si>
+    <t>real    8m5.925s
+user    0m18.950s
+sys     0m40.873s</t>
+  </si>
+  <si>
+    <t>real    3m43.003s
+user    0m20.310s
+sys     0m28.280s</t>
+  </si>
+  <si>
+    <t>real    12m12.779s
+user    0m11.599s
+sys     0m25.476s</t>
+  </si>
+  <si>
+    <t>real    12m54.920s
+user    0m12.111s
+sys     0m32.982s</t>
+  </si>
+  <si>
+    <t>real    10m56.802s
+user    0m11.939s
+sys     0m35.551s</t>
+  </si>
+  <si>
+    <t>real    10m44.316s
+user    0m13.359s
+sys     0m34.084s</t>
+  </si>
+  <si>
+    <t>real    5m40.907s
+user    0m7.741s
+sys     0m14.073s</t>
+  </si>
+  <si>
+    <t>real    1m5.472s
+user    0m34.949s
+sys     0m23.999s</t>
+  </si>
+  <si>
+    <t>real    0m32.543s
+user    0m17.940s
+sys     0m12.906s</t>
+  </si>
+  <si>
+    <t>real    0m57.238s
+user    0m33.165s
+sys     0m21.675s</t>
+  </si>
+  <si>
+    <t>real    0m32.496s
+user    0m17.339s
+sys     0m11.731s</t>
+  </si>
+  <si>
+    <t>real    0m48.075s
+user    0m29.101s
+sys     0m17.122s</t>
+  </si>
+  <si>
+    <t>real    0m27.513s
+user    0m15.091s
+sys     0m8.822s</t>
+  </si>
+  <si>
+    <t>real    0m47.983s
+user    0m29.373s
+sys     0m16.166s</t>
+  </si>
+  <si>
+    <t>real    0m23.641s
+user    0m14.687s
+sys     0m8.362s</t>
+  </si>
+  <si>
+    <t>real    0m52.067s
+user    0m31.880s
+sys     0m17.785s</t>
+  </si>
+  <si>
+    <t>real    0m25.717s
+user    0m16.086s
+sys     0m8.905s</t>
+  </si>
+  <si>
+    <t>real    0m58.259s
+user    0m29.272s
+sys     0m17.820s</t>
+  </si>
+  <si>
+    <t>real    0m30.633s
+user    0m14.748s
+sys     0m9.080s</t>
+  </si>
+  <si>
+    <t>real    0m45.736s
+user    0m28.427s
+sys     0m16.093s</t>
+  </si>
+  <si>
+    <t>real    0m23.885s
+user    0m14.819s
+sys     0m8.280s</t>
+  </si>
+  <si>
+    <t>real    9m59.931s
+user    0m20.028s
+sys     0m41.768s</t>
+  </si>
+  <si>
+    <t>real    9m48.418s
+user    0m20.558s
+sys     0m32.000s</t>
+  </si>
+  <si>
+    <t>real    10m29.488s
+user    0m11.304s
+sys     0m28.579s</t>
+  </si>
+  <si>
+    <t>real    3m33.315s
+user    0m11.613s
+sys     0m21.208s</t>
+  </si>
+  <si>
+    <t>real    8m55.864s
+user    0m11.944s
+sys     0m33.835s</t>
+  </si>
+  <si>
+    <t>real    8m17.403s
+user    0m11.402s
+sys     0m36.097s</t>
+  </si>
+  <si>
+    <t>real    5m37.531s
+user    0m7.417s
+sys     0m13.435s</t>
+  </si>
+  <si>
+    <t>real    0m58.270s
+user    0m29.663s
+sys     0m17.837s</t>
+  </si>
+  <si>
+    <t>real    0m31.269s
+user    0m15.105s
+sys     0m9.217s</t>
+  </si>
+  <si>
+    <t>real    0m47.549s
+user    0m29.102s
+sys     0m16.153s</t>
+  </si>
+  <si>
+    <t>real    0m23.964s
+user    0m14.821s
+sys     0m8.266s</t>
+  </si>
+  <si>
+    <t>real    1m1.060s
+user    0m34.062s
+sys     0m23.422s</t>
+  </si>
+  <si>
+    <t>real    0m32.814s
+user    0m18.393s
+sys     0m12.945s</t>
+  </si>
+  <si>
+    <t>real    0m56.918s
+user    0m33.014s
+sys     0m21.218s</t>
+  </si>
+  <si>
+    <t>real    0m31.973s
+user    0m17.837s
+sys     0m12.279s</t>
+  </si>
+  <si>
+    <t>real    0m48.626s
+user    0m29.620s
+sys     0m16.917s</t>
+  </si>
+  <si>
+    <t>real    0m25.258s
+user    0m14.857s
+sys     0m8.439s</t>
+  </si>
+  <si>
+    <t>real    0m46.800s
+user    0m28.720s
+sys     0m16.233s</t>
+  </si>
+  <si>
+    <t>real    0m23.238s
+user    0m14.478s
+sys     0m8.106s</t>
+  </si>
+  <si>
+    <t>real    0m49.179s
+user    0m30.851s
+sys     0m17.193s</t>
+  </si>
+  <si>
+    <t>real    0m25.123s
+user    0m15.728s
+sys     0m8.705s</t>
+  </si>
+  <si>
+    <t>real    11m44.108s
+user    0m19.048s
+sys     0m38.323s</t>
+  </si>
+  <si>
+    <t>real    9m20.471s
+user    0m18.012s
+sys     0m47.432s</t>
+  </si>
+  <si>
+    <t>real    14m21.478s
+user    0m11.488s
+sys     0m32.151s</t>
+  </si>
+  <si>
+    <t>real    10m46.068s
+user    0m11.743s
+sys     0m23.832s</t>
+  </si>
+  <si>
+    <t>real    10m24.463s
+user    0m11.888s
+sys     0m41.542s</t>
+  </si>
+  <si>
+    <t>real    11m20.079s
+user    0m13.564s
+sys     0m28.679s</t>
+  </si>
+  <si>
+    <t>real    10m53.293s
+user    0m7.808s
+sys     0m14.167s</t>
+  </si>
+  <si>
+    <t>real    1m2.044s
+user    0m35.024s
+sys     0m24.025s</t>
+  </si>
+  <si>
+    <t>real    0m33.305s
+user    0m18.328s
+sys     0m13.258s</t>
+  </si>
+  <si>
+    <t>real    0m57.618s
+user    0m32.855s
+sys     0m22.355s</t>
+  </si>
+  <si>
+    <t>real    0m32.175s
+user    0m17.774s
+sys     0m12.489s</t>
+  </si>
+  <si>
+    <t>real    0m47.825s
+user    0m28.991s
+sys     0m16.800s</t>
+  </si>
+  <si>
+    <t>real    0m26.184s
+user    0m15.034s
+sys     0m8.565s</t>
+  </si>
+  <si>
+    <t>real    0m46.478s
+user    0m28.876s
+sys     0m16.471s</t>
+  </si>
+  <si>
+    <t>real    0m24.776s
+user    0m14.502s
+sys     0m8.188s</t>
+  </si>
+  <si>
+    <t>real    0m49.182s
+user    0m30.703s
+sys     0m17.255s</t>
+  </si>
+  <si>
+    <t>real    0m24.923s
+user    0m15.597s
+sys     0m9.004s</t>
+  </si>
+  <si>
+    <t>real    0m57.656s
+user    0m29.095s
+sys     0m17.768s</t>
+  </si>
+  <si>
+    <t>real    0m31.130s
+user    0m14.833s
+sys     0m9.289s</t>
+  </si>
+  <si>
+    <t>real    0m46.220s
+user    0m28.484s
+sys     0m16.522s</t>
+  </si>
+  <si>
+    <t>real    0m23.506s
+user    0m14.495s
+sys     0m8.307s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,6 +530,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,16 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,31 +825,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="3" max="8" width="9.83203125"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="8" width="9.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="S1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+    </row>
+    <row r="2" spans="1:26" ht="26.25" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -557,20 +892,126 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="108.75" thickBot="1">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="26.25" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -581,8 +1022,28 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="3"/>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="51.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -593,20 +1054,102 @@
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="115.5" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="26.25" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -617,8 +1160,28 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="51.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,20 +1192,102 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="115.5" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="26.25" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -653,8 +1298,28 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="S10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" ht="51.75" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -665,32 +1330,92 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="S13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="S14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" ht="26.25" thickBot="1">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -713,8 +1438,52 @@
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="6"/>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="39" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -725,8 +1494,28 @@
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="3"/>
+      <c r="S16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -737,8 +1526,28 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -749,12 +1558,38 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="S14:Z14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="J14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="portrait"/>
@@ -766,42 +1601,42 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3">
         <v>11779</v>
       </c>
@@ -818,7 +1653,7 @@
         <v>8972</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4">
         <v>10708</v>
       </c>
@@ -835,7 +1670,7 @@
         <v>8380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>11559</v>
       </c>
@@ -852,7 +1687,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>11097</v>
       </c>
@@ -869,7 +1704,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>12301</v>
       </c>

--- a/experiment_data.xlsx
+++ b/experiment_data.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\experiment_attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Git/experiment_attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D897C7D-AF4E-42F7-B7E8-9CBA22975402}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1AC15-FBA1-5E44-B80F-97AB76DAE18F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1605" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="740" windowWidth="27100" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_installation" sheetId="1" r:id="rId1"/>
     <sheet name="container_creation" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">container_creation!$I$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">container_creation!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">container_creation!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">container_creation!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">container_creation!$B$5:$F$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">container_creation!$B$6:$F$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">container_creation!$B$7:$F$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">container_creation!$I$8</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>Raw time data in experiment</t>
   </si>
   <si>
-    <t>Bare System</t>
-  </si>
-  <si>
     <t>Docker</t>
   </si>
   <si>
@@ -48,9 +55,6 @@
   </si>
   <si>
     <t>user + sys</t>
-  </si>
-  <si>
-    <t>set time of bare system to 1</t>
   </si>
   <si>
     <t>htslib</t>
@@ -116,11 +120,6 @@
 sys     0m34.084s</t>
   </si>
   <si>
-    <t>real    5m40.907s
-user    0m7.741s
-sys     0m14.073s</t>
-  </si>
-  <si>
     <t>real    1m5.472s
 user    0m34.949s
 sys     0m23.999s</t>
@@ -181,16 +180,6 @@
 sys     0m9.080s</t>
   </si>
   <si>
-    <t>real    0m45.736s
-user    0m28.427s
-sys     0m16.093s</t>
-  </si>
-  <si>
-    <t>real    0m23.885s
-user    0m14.819s
-sys     0m8.280s</t>
-  </si>
-  <si>
     <t>real    9m59.931s
 user    0m20.028s
 sys     0m41.768s</t>
@@ -221,11 +210,6 @@
 sys     0m36.097s</t>
   </si>
   <si>
-    <t>real    5m37.531s
-user    0m7.417s
-sys     0m13.435s</t>
-  </si>
-  <si>
     <t>real    0m58.270s
 user    0m29.663s
 sys     0m17.837s</t>
@@ -236,16 +220,6 @@
 sys     0m9.217s</t>
   </si>
   <si>
-    <t>real    0m47.549s
-user    0m29.102s
-sys     0m16.153s</t>
-  </si>
-  <si>
-    <t>real    0m23.964s
-user    0m14.821s
-sys     0m8.266s</t>
-  </si>
-  <si>
     <t>real    1m1.060s
 user    0m34.062s
 sys     0m23.422s</t>
@@ -326,11 +300,6 @@
 sys     0m28.679s</t>
   </si>
   <si>
-    <t>real    10m53.293s
-user    0m7.808s
-sys     0m14.167s</t>
-  </si>
-  <si>
     <t>real    1m2.044s
 user    0m35.024s
 sys     0m24.025s</t>
@@ -389,23 +358,13 @@
     <t>real    0m31.130s
 user    0m14.833s
 sys     0m9.289s</t>
-  </si>
-  <si>
-    <t>real    0m46.220s
-user    0m28.484s
-sys     0m16.522s</t>
-  </si>
-  <si>
-    <t>real    0m23.506s
-user    0m14.495s
-sys     0m8.307s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -825,19 +784,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="8" width="9.85546875"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="7" width="9.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1">
+    <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -847,29 +806,26 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-    </row>
-    <row r="2" spans="1:26" ht="26.25" thickBot="1">
+    </row>
+    <row r="2" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -889,707 +845,646 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="108.75" thickBot="1">
+    </row>
+    <row r="3" spans="1:23" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>37.075000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>47.79</v>
+      </c>
+      <c r="D4" s="3">
+        <v>59.823</v>
+      </c>
+      <c r="E4" s="3">
+        <v>48.59</v>
+      </c>
+      <c r="F4" s="5">
+        <v>47.442999999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45.093000000000004</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3">
+        <v>39.883000000000003</v>
+      </c>
+      <c r="K4" s="3">
+        <v>45.779000000000003</v>
+      </c>
+      <c r="L4" s="3">
+        <v>61.795999999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>52.558</v>
+      </c>
+      <c r="N4" s="5">
+        <v>47.499000000000002</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3">
+        <v>43.639000000000003</v>
+      </c>
+      <c r="S4" s="3">
+        <v>53.43</v>
+      </c>
+      <c r="T4" s="3">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="U4" s="3">
+        <v>57.371000000000002</v>
+      </c>
+      <c r="V4" s="5">
+        <v>42.243000000000002</v>
+      </c>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" ht="79" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>46.232999999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>49.664999999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>58.948</v>
+      </c>
+      <c r="E6" s="5">
+        <v>54.84</v>
+      </c>
+      <c r="F6" s="5">
+        <v>47.091999999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45.539000000000001</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>46.536999999999999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>48.043999999999997</v>
+      </c>
+      <c r="L6" s="5">
+        <v>57.484000000000002</v>
+      </c>
+      <c r="M6" s="5">
+        <v>54.231999999999999</v>
+      </c>
+      <c r="N6" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="O6" s="5">
+        <v>44.953000000000003</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5">
+        <v>45.790999999999997</v>
+      </c>
+      <c r="S6" s="5">
+        <v>47.957999999999998</v>
+      </c>
+      <c r="T6" s="5">
+        <v>59.048999999999999</v>
+      </c>
+      <c r="U6" s="5">
+        <v>55.21</v>
+      </c>
+      <c r="V6" s="5">
+        <v>46.863</v>
+      </c>
+      <c r="W6" s="5">
+        <v>45.347000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="127" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="8" t="s">
+      <c r="O7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="9" t="s">
+      <c r="V7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="8" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23.913</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24.991</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30.846</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29.07</v>
+      </c>
+      <c r="F8" s="1">
+        <v>23.827999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>23.048999999999999</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>23.295999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>24.433</v>
+      </c>
+      <c r="L8" s="1">
+        <v>31.338000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>30.015999999999998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>24.332000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <v>22.584</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="1">
+        <v>23.599</v>
+      </c>
+      <c r="S8" s="1">
+        <v>24.600999999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <v>31.585999999999999</v>
+      </c>
+      <c r="U8" s="1">
+        <v>30.26</v>
+      </c>
+      <c r="V8" s="1">
+        <v>24.122</v>
+      </c>
+      <c r="W8" s="1">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="Q10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="2" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="3"/>
-      <c r="S4" s="2" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="Q14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A5" s="2" t="s">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="3"/>
-      <c r="S5" s="2" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="115.5" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="S7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="S8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="115.5" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="J10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="S10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="S11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="J13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="S13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="S14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="39" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="3"/>
-      <c r="S16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="S17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="S14:Z14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Q11:W11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="portrait"/>
@@ -1601,14 +1496,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1616,27 +1511,27 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11779</v>
       </c>
@@ -1653,7 +1548,7 @@
         <v>8972</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10708</v>
       </c>
@@ -1670,7 +1565,7 @@
         <v>8380</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>11559</v>
       </c>
@@ -1687,7 +1582,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>11097</v>
       </c>
@@ -1704,7 +1599,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>12301</v>
       </c>

--- a/experiment_data.xlsx
+++ b/experiment_data.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Git/experiment_attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\experiment_attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1AC15-FBA1-5E44-B80F-97AB76DAE18F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6E9C7-8D9B-4495-A4BC-BB185BBB0302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="740" windowWidth="27100" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_installation" sheetId="1" r:id="rId1"/>
     <sheet name="container_creation" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">container_creation!$I$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">container_creation!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">container_creation!$B$3:$F$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">container_creation!$B$4:$F$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">container_creation!$B$5:$F$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">container_creation!$B$6:$F$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">container_creation!$B$7:$F$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">container_creation!$I$8</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>Raw time data in experiment</t>
   </si>
@@ -63,12 +53,6 @@
     <t>samtools</t>
   </si>
   <si>
-    <t xml:space="preserve">Coefficient Values (Set values of bare system to 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C = Tc / Tb ,where Tc is the time tested on container systems, Tb is the time tested on the bare system </t>
-  </si>
-  <si>
     <t>uDocker</t>
   </si>
   <si>
@@ -85,9 +69,6 @@
   </si>
   <si>
     <t>unit(ms)</t>
-  </si>
-  <si>
-    <t>common packages</t>
   </si>
   <si>
     <t>real    8m5.925s
@@ -95,11 +76,6 @@
 sys     0m40.873s</t>
   </si>
   <si>
-    <t>real    3m43.003s
-user    0m20.310s
-sys     0m28.280s</t>
-  </si>
-  <si>
     <t>real    12m12.779s
 user    0m11.599s
 sys     0m25.476s</t>
@@ -195,11 +171,6 @@
 sys     0m28.579s</t>
   </si>
   <si>
-    <t>real    3m33.315s
-user    0m11.613s
-sys     0m21.208s</t>
-  </si>
-  <si>
     <t>real    8m55.864s
 user    0m11.944s
 sys     0m33.835s</t>
@@ -285,11 +256,6 @@
 sys     0m32.151s</t>
   </si>
   <si>
-    <t>real    10m46.068s
-user    0m11.743s
-sys     0m23.832s</t>
-  </si>
-  <si>
     <t>real    10m24.463s
 user    0m11.888s
 sys     0m41.542s</t>
@@ -358,13 +324,211 @@
     <t>real    0m31.130s
 user    0m14.833s
 sys     0m9.289s</t>
+  </si>
+  <si>
+    <t>real    10m3.279s
+user    0m11.048s
+sys     0m31.238s</t>
+  </si>
+  <si>
+    <t>real    10m42.635s
+user    0m11.711s
+sys     0m33.526s</t>
+  </si>
+  <si>
+    <t>real    11m20.779s
+user    0m23.932s
+sys     0m50.126s</t>
+  </si>
+  <si>
+    <t>real    10m48.770s
+user    0m22.268s
+sys     0m37.726s</t>
+  </si>
+  <si>
+    <t>real    10m10.667s
+user    0m11.936s
+sys     0m27.476s</t>
+  </si>
+  <si>
+    <t>real    9m14.726s
+user    0m12.276s
+sys     0m32.528s</t>
+  </si>
+  <si>
+    <t>real    10m33.609s
+user    0m13.221s
+sys     0m34.652s</t>
+  </si>
+  <si>
+    <t>real    0m59.346s
+user    0m33.898s
+sys     0m22.927s</t>
+  </si>
+  <si>
+    <t>real    0m31.196s
+user    0m17.602s
+sys     0m12.334s</t>
+  </si>
+  <si>
+    <t>real    0m57.424s
+user    0m33.120s
+sys     0m21.757s</t>
+  </si>
+  <si>
+    <t>real    0m29.932s
+user    0m17.202s
+sys     0m11.184s</t>
+  </si>
+  <si>
+    <t>real    0m50.580s
+user    0m30.302s
+sys     0m17.152s</t>
+  </si>
+  <si>
+    <t>real    0m27.587s
+user    0m16.228s
+sys     0m9.629s</t>
+  </si>
+  <si>
+    <t>real    0m50.429s
+user    0m31.690s
+sys     0m17.725s</t>
+  </si>
+  <si>
+    <t>real    0m25.996s
+user    0m16.050s
+sys     0m9.316s</t>
+  </si>
+  <si>
+    <t>real    0m52.046s
+user    0m32.806s
+sys     0m18.222s</t>
+  </si>
+  <si>
+    <t>real    0m25.343s
+user    0m15.921s
+sys     0m8.872s</t>
+  </si>
+  <si>
+    <t>real    0m59.567s
+user    0m30.416s
+sys     0m18.379s</t>
+  </si>
+  <si>
+    <t>real    0m31.446s
+user    0m15.264s
+sys     0m9.206s</t>
+  </si>
+  <si>
+    <t>real    10m35.495s
+user    0m11.942s
+sys     0m34.368s</t>
+  </si>
+  <si>
+    <t>real    11m48.909s
+user    0m21.741s
+sys     0m52.363s</t>
+  </si>
+  <si>
+    <t>common packages(129MB download, 765MB installed)</t>
+  </si>
+  <si>
+    <t>real    10m6.293s
+user    0m20.383s
+sys     0m44.300s</t>
+  </si>
+  <si>
+    <t>real    10m19.647s
+user    0m12.390s
+sys     0m28.536s</t>
+  </si>
+  <si>
+    <t>real    7m43.003s
+user    0m20.310s
+sys     0m28.280s</t>
+  </si>
+  <si>
+    <t>real    9m58.426s
+user    0m12.415s
+sys     0m32.289s</t>
+  </si>
+  <si>
+    <t>real    9m22.698s
+user    0m12.829s
+sys     0m42.203s</t>
+  </si>
+  <si>
+    <t>real    10m52.561s
+user    0m13.822s
+sys     0m40.485s</t>
+  </si>
+  <si>
+    <t>real    1m3.632s
+user    0m35.660s
+sys     0m23.929s</t>
+  </si>
+  <si>
+    <t>real    0m32.837s
+user    0m18.338s
+sys     0m13.070s</t>
+  </si>
+  <si>
+    <t>real    0m57.703s
+user    0m33.580s
+sys     0m21.722s</t>
+  </si>
+  <si>
+    <t>real    0m31.052s
+user    0m17.418s
+sys     0m11.869s</t>
+  </si>
+  <si>
+    <t>real    0m50.118s
+user    0m30.316s
+sys     0m17.196s</t>
+  </si>
+  <si>
+    <t>real    0m25.195s
+user    0m15.313s
+sys     0m8.473s</t>
+  </si>
+  <si>
+    <t>real    0m49.259s
+user    0m30.982s
+sys     0m17.433s</t>
+  </si>
+  <si>
+    <t>real    0m23.380s
+user    0m14.543s
+sys     0m8.169s</t>
+  </si>
+  <si>
+    <t>real    0m56.757s
+user    0m29.071s
+sys     0m17.251s</t>
+  </si>
+  <si>
+    <t>real    0m30.832s
+user    0m14.850s
+sys     0m9.009s</t>
+  </si>
+  <si>
+    <t>real    0m52.277s
+user    0m30.921s
+sys     0m20.129s</t>
+  </si>
+  <si>
+    <t>real    0m24.619s
+user    0m15.710s
+sys     0m8.509s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -433,6 +597,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -469,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -505,14 +675,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,19 +951,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="7" width="9.83203125"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="7" width="9.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -806,7 +973,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="12"/>
@@ -814,18 +981,32 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="W1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AD1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
     </row>
-    <row r="2" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="26.25" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -845,111 +1026,175 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="92" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="108.75" thickBot="1">
       <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>18</v>
+      <c r="I3" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>18</v>
+      <c r="N3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -971,111 +1216,175 @@
       <c r="G4" s="3">
         <v>45.093000000000004</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
+      <c r="I4" s="3">
+        <v>39.883000000000003</v>
       </c>
       <c r="J4" s="3">
-        <v>39.883000000000003</v>
+        <v>45.779000000000003</v>
       </c>
       <c r="K4" s="3">
-        <v>45.779000000000003</v>
+        <v>61.795999999999999</v>
       </c>
       <c r="L4" s="3">
-        <v>61.795999999999999</v>
-      </c>
-      <c r="M4" s="3">
         <v>52.558</v>
       </c>
-      <c r="N4" s="5">
+      <c r="M4" s="5">
         <v>47.499000000000002</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="Q4" s="2" t="s">
-        <v>7</v>
+      <c r="N4" s="3">
+        <v>42.286000000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>43.639000000000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>53.43</v>
       </c>
       <c r="R4" s="3">
-        <v>43.639000000000003</v>
+        <v>65.444000000000003</v>
       </c>
       <c r="S4" s="3">
-        <v>53.43</v>
-      </c>
-      <c r="T4" s="3">
-        <v>65.444000000000003</v>
+        <v>57.371000000000002</v>
+      </c>
+      <c r="T4" s="5">
+        <v>42.243000000000002</v>
       </c>
       <c r="U4" s="3">
-        <v>57.371000000000002</v>
-      </c>
-      <c r="V4" s="5">
-        <v>42.243000000000002</v>
-      </c>
-      <c r="W4" s="3"/>
+        <v>45.237000000000002</v>
+      </c>
+      <c r="W4" s="3">
+        <v>39.411999999999999</v>
+      </c>
+      <c r="X4" s="3">
+        <v>44.804000000000002</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>74.058000000000007</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>59.994</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>47.872999999999998</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>46.31</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>40.926000000000002</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>55.031999999999996</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>74.103999999999999</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>64.683000000000007</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>54.307000000000002</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>44.704000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="79" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="108.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="W5" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1097,115 +1406,175 @@
       <c r="G6" s="5">
         <v>45.539000000000001</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>7</v>
+      <c r="I6" s="5">
+        <v>46.536999999999999</v>
       </c>
       <c r="J6" s="5">
-        <v>46.536999999999999</v>
+        <v>48.043999999999997</v>
       </c>
       <c r="K6" s="5">
-        <v>48.043999999999997</v>
+        <v>57.484000000000002</v>
       </c>
       <c r="L6" s="5">
-        <v>57.484000000000002</v>
+        <v>54.231999999999999</v>
       </c>
       <c r="M6" s="5">
-        <v>54.231999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="N6" s="5">
-        <v>47.5</v>
-      </c>
-      <c r="O6" s="5">
         <v>44.953000000000003</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>7</v>
+      <c r="P6" s="5">
+        <v>45.790999999999997</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>47.957999999999998</v>
       </c>
       <c r="R6" s="5">
-        <v>45.790999999999997</v>
+        <v>59.048999999999999</v>
       </c>
       <c r="S6" s="5">
-        <v>47.957999999999998</v>
+        <v>55.21</v>
       </c>
       <c r="T6" s="5">
-        <v>59.048999999999999</v>
+        <v>46.863</v>
       </c>
       <c r="U6" s="5">
-        <v>55.21</v>
-      </c>
-      <c r="V6" s="5">
-        <v>46.863</v>
+        <v>45.347000000000001</v>
       </c>
       <c r="W6" s="5">
-        <v>45.347000000000001</v>
+        <v>47.454000000000001</v>
+      </c>
+      <c r="X6" s="5">
+        <v>51.027999999999999</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>56.825000000000003</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>54.877000000000002</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>48.795000000000002</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>49.414999999999999</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>47.512</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>51.05</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>59.588999999999999</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>55.302</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>46.322000000000003</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>48.414999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="127" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="115.5" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="W7" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1227,267 +1596,468 @@
       <c r="G8" s="1">
         <v>23.048999999999999</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
+      <c r="I8" s="1">
+        <v>23.295999999999999</v>
       </c>
       <c r="J8" s="1">
+        <v>24.433</v>
+      </c>
+      <c r="K8" s="1">
+        <v>31.338000000000001</v>
+      </c>
+      <c r="L8" s="1">
+        <v>30.015999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>24.332000000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <v>22.584</v>
+      </c>
+      <c r="P8" s="1">
+        <v>23.599</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>24.600999999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>31.585999999999999</v>
+      </c>
+      <c r="S8" s="1">
+        <v>30.26</v>
+      </c>
+      <c r="T8" s="1">
+        <v>24.122</v>
+      </c>
+      <c r="U8" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="W8" s="1">
+        <v>25.856999999999999</v>
+      </c>
+      <c r="X8" s="1">
+        <v>24.792999999999999</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>29.936</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>28.385999999999999</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>24.47</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>25.366</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>23.786000000000001</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>24.219000000000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>31.408000000000001</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>29.286999999999999</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>23.859000000000002</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>22.712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:35" ht="26.25" thickBot="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="26.25" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>37.075000000000003</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47.79</v>
+      </c>
+      <c r="D11" s="3">
+        <v>59.823</v>
+      </c>
+      <c r="E11" s="3">
+        <v>48.59</v>
+      </c>
+      <c r="F11" s="5">
+        <v>47.442999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45.093000000000004</v>
+      </c>
+      <c r="I11" s="3">
+        <v>39.883000000000003</v>
+      </c>
+      <c r="J11" s="3">
+        <v>45.779000000000003</v>
+      </c>
+      <c r="K11" s="3">
+        <v>61.795999999999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>52.558</v>
+      </c>
+      <c r="M11" s="5">
+        <v>47.499000000000002</v>
+      </c>
+      <c r="N11" s="3">
+        <v>42.286000000000001</v>
+      </c>
+      <c r="P11" s="3">
+        <v>43.639000000000003</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>53.43</v>
+      </c>
+      <c r="R11" s="3">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="S11" s="3">
+        <v>57.371000000000002</v>
+      </c>
+      <c r="T11" s="5">
+        <v>42.243000000000002</v>
+      </c>
+      <c r="U11" s="3">
+        <v>45.237000000000002</v>
+      </c>
+      <c r="W11" s="3">
+        <v>39.411999999999999</v>
+      </c>
+      <c r="X11" s="3">
+        <v>44.804000000000002</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>74.058000000000007</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>59.994</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>47.872999999999998</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>46.31</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>40.926000000000002</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>55.031999999999996</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>74.103999999999999</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>64.683000000000007</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>54.307000000000002</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>44.704000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15.75" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>46.232999999999997</v>
+      </c>
+      <c r="C12" s="5">
+        <v>49.664999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>58.948</v>
+      </c>
+      <c r="E12" s="5">
+        <v>54.84</v>
+      </c>
+      <c r="F12" s="5">
+        <v>47.091999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45.539000000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <v>46.536999999999999</v>
+      </c>
+      <c r="J12" s="5">
+        <v>48.043999999999997</v>
+      </c>
+      <c r="K12" s="5">
+        <v>57.484000000000002</v>
+      </c>
+      <c r="L12" s="5">
+        <v>54.231999999999999</v>
+      </c>
+      <c r="M12" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="N12" s="5">
+        <v>44.953000000000003</v>
+      </c>
+      <c r="P12" s="5">
+        <v>45.790999999999997</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>47.957999999999998</v>
+      </c>
+      <c r="R12" s="5">
+        <v>59.048999999999999</v>
+      </c>
+      <c r="S12" s="5">
+        <v>55.21</v>
+      </c>
+      <c r="T12" s="5">
+        <v>46.863</v>
+      </c>
+      <c r="U12" s="5">
+        <v>45.347000000000001</v>
+      </c>
+      <c r="W12" s="5">
+        <v>47.454000000000001</v>
+      </c>
+      <c r="X12" s="5">
+        <v>51.027999999999999</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>56.825000000000003</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>54.877000000000002</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>48.795000000000002</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>49.414999999999999</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>47.512</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>51.05</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>59.588999999999999</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>55.302</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>46.322000000000003</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>48.414999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>23.913</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24.991</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30.846</v>
+      </c>
+      <c r="E13" s="1">
+        <v>29.07</v>
+      </c>
+      <c r="F13" s="1">
+        <v>23.827999999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>23.048999999999999</v>
+      </c>
+      <c r="I13" s="1">
         <v>23.295999999999999</v>
       </c>
-      <c r="K8" s="1">
+      <c r="J13" s="1">
         <v>24.433</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K13" s="1">
         <v>31.338000000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L13" s="1">
         <v>30.015999999999998</v>
       </c>
-      <c r="N8" s="1">
+      <c r="M13" s="1">
         <v>24.332000000000001</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N13" s="1">
         <v>22.584</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="P13" s="1">
         <v>23.599</v>
       </c>
-      <c r="S8" s="1">
+      <c r="Q13" s="1">
         <v>24.600999999999999</v>
       </c>
-      <c r="T8" s="1">
+      <c r="R13" s="1">
         <v>31.585999999999999</v>
       </c>
-      <c r="U8" s="1">
+      <c r="S13" s="1">
         <v>30.26</v>
       </c>
-      <c r="V8" s="1">
+      <c r="T13" s="1">
         <v>24.122</v>
       </c>
-      <c r="W8" s="1">
+      <c r="U13" s="1">
         <v>22.69</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="Q11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="3"/>
-      <c r="Q13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="I14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="W13" s="1">
+        <v>25.856999999999999</v>
+      </c>
+      <c r="X13" s="1">
+        <v>24.792999999999999</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>29.936</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>28.385999999999999</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>24.47</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>25.366</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>23.786000000000001</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>24.219000000000001</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>31.408000000000001</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>29.286999999999999</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>23.859000000000002</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>22.712</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="Q11:W11"/>
+  <mergeCells count="5">
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" orientation="portrait"/>
+  <pageSetup fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1499,11 +2069,11 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1511,9 +2081,9 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1522,16 +2092,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3">
         <v>11779</v>
       </c>
@@ -1548,7 +2118,7 @@
         <v>8972</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4">
         <v>10708</v>
       </c>
@@ -1565,7 +2135,7 @@
         <v>8380</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5">
         <v>11559</v>
       </c>
@@ -1582,7 +2152,7 @@
         <v>7753</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="B6">
         <v>11097</v>
       </c>
@@ -1599,7 +2169,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7">
         <v>12301</v>
       </c>

--- a/experiment_data.xlsx
+++ b/experiment_data.xlsx
@@ -1,27 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\experiment_attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Git/experiment_attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6E9C7-8D9B-4495-A4BC-BB185BBB0302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E16C64-B6F7-0342-BE38-352E96D43B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_installation" sheetId="1" r:id="rId1"/>
     <sheet name="container_creation" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">container_creation!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">container_creation!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">container_creation!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">container_creation!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">container_creation!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">container_creation!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">container_creation!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">container_creation!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">container_creation!$B$11:$F$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">container_creation!$B$2:$F$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>Raw time data in experiment</t>
   </si>
@@ -59,16 +82,10 @@
     <t>package installation</t>
   </si>
   <si>
-    <t>create and destroy 10 containers by order, calculate the time in milliseconds</t>
-  </si>
-  <si>
     <t>LPMX</t>
   </si>
   <si>
     <t>udocker</t>
-  </si>
-  <si>
-    <t>unit(ms)</t>
   </si>
   <si>
     <t>real    8m5.925s
@@ -522,13 +539,28 @@
     <t>real    0m24.619s
 user    0m15.710s
 sys     0m8.509s</t>
+  </si>
+  <si>
+    <t>unit(s)</t>
+  </si>
+  <si>
+    <t>create and destroy 10 containers by order, calculate the time in seconds</t>
+  </si>
+  <si>
+    <t>10 times average(unit s)</t>
+  </si>
+  <si>
+    <t>1 time average(unit s)</t>
+  </si>
+  <si>
+    <t>1 time average(unit ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -669,17 +701,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,60 +985,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="7" width="9.85546875"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="7" width="9.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="W1" s="13" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="W1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AD1" s="13" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AD1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
     </row>
-    <row r="2" spans="1:35" ht="26.25" thickBot="1">
+    <row r="2" spans="1:35" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1099,102 +1131,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="108.75" thickBot="1">
+    <row r="3" spans="1:35" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" ht="15.75" thickBot="1">
+    <row r="4" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1289,102 +1321,102 @@
         <v>44.704000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="108.75" thickBot="1">
+    <row r="5" spans="1:35" ht="79" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="P5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="W5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="AD5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AE5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" ht="15.75" thickBot="1">
+    <row r="6" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1479,102 +1511,102 @@
         <v>48.414999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="115.5" thickBot="1">
+    <row r="7" spans="1:35" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="W7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AD7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AE7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI7" s="14" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" ht="15.75" thickBot="1">
+    <row r="8" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1669,8 +1701,8 @@
         <v>22.712</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:35" ht="26.25" thickBot="1">
+    <row r="9" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:35" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -1763,7 +1795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="26.25" thickBot="1">
+    <row r="11" spans="1:35" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1858,7 +1890,7 @@
         <v>44.704000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15.75" thickBot="1">
+    <row r="12" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +1985,7 @@
         <v>48.414999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1">
+    <row r="13" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2063,27 +2095,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDD09EE-3362-2C40-A82E-4D3B0B09624D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -2092,98 +2127,173 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>11779</v>
+        <v>11.779</v>
       </c>
       <c r="C3">
-        <v>4063</v>
+        <v>4.0629999999999997</v>
       </c>
       <c r="D3">
-        <v>687</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E3">
-        <v>19698</v>
+        <v>19.698</v>
       </c>
       <c r="F3">
-        <v>8972</v>
+        <v>8.9719999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>10708</v>
+        <v>10.708</v>
       </c>
       <c r="C4">
-        <v>2470</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D4">
-        <v>590</v>
+        <v>0.59</v>
       </c>
       <c r="E4">
-        <v>18953</v>
+        <v>18.952999999999999</v>
       </c>
       <c r="F4">
-        <v>8380</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>11559</v>
+        <v>11.558999999999999</v>
       </c>
       <c r="C5">
-        <v>3879</v>
+        <v>3.879</v>
       </c>
       <c r="D5">
-        <v>513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="E5">
-        <v>18979</v>
+        <v>18.978999999999999</v>
       </c>
       <c r="F5">
-        <v>7753</v>
+        <v>7.7530000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>11097</v>
+        <v>11.097</v>
       </c>
       <c r="C6">
-        <v>3876</v>
+        <v>3.8759999999999999</v>
       </c>
       <c r="D6">
-        <v>491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="E6">
-        <v>16939</v>
+        <v>16.939</v>
       </c>
       <c r="F6">
-        <v>7407</v>
+        <v>7.407</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>12301</v>
+        <v>12.301</v>
       </c>
       <c r="C7">
-        <v>3897</v>
+        <v>3.8969999999999998</v>
       </c>
       <c r="D7">
-        <v>618</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="E7">
-        <v>16929</v>
+        <v>16.928999999999998</v>
       </c>
       <c r="F7">
-        <v>8367</v>
+        <v>8.3670000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B3:B7)</f>
+        <v>11.488800000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="0">AVERAGE(C3:C7)</f>
+        <v>3.6369999999999996</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>18.299599999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8.1758000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="str">
+        <f>IMDIV(B9, 10)</f>
+        <v>1.14888</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:F10" si="1">IMDIV(C9, 10)</f>
+        <v>0.3637</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>0.05798</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>1.82996</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>0.81758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <f>B10*1000</f>
+        <v>1148.8799999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:F11" si="2">C10*1000</f>
+        <v>363.70000000000005</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>57.98</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1829.96</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>817.57999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2191,5 +2301,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>